--- a/Данные ТПА.xlsx
+++ b/Данные ТПА.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr codeName="ЭтаКнига"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\InjMold_cycle_time_calc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C94F26-54E0-4E18-9508-5DD356FE7005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="2" r:id="rId1"/>
@@ -12,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Данные!$B$2:$H$25</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,15 +37,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Запрос — Таблица1" description="Соединение с запросом &quot;Таблица1&quot; в книге." type="5" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Запрос — Таблица1" description="Соединение с запросом &quot;Таблица1&quot; в книге." type="5" refreshedVersion="0" background="1">
     <dbPr connection="provider=Microsoft.Mashup.OleDb.1;data source=$EmbeddedMashup(98e9092b-af63-4557-bf45-91935f35ce2b)$;location=Таблица1;extended properties=" command="SELECT * FROM [Таблица1]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="15">
   <si>
     <t>Материал</t>
   </si>
@@ -50,19 +56,46 @@
     <t>Время цикла, с</t>
   </si>
   <si>
-    <t>PC/ABS</t>
-  </si>
-  <si>
     <t>PP</t>
   </si>
   <si>
     <t>PC</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>ABS/PC</t>
+  </si>
+  <si>
+    <t>PA66</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>ASA/PC</t>
+  </si>
+  <si>
+    <t>PBT (30% GF)</t>
+  </si>
+  <si>
+    <t>PMMA</t>
+  </si>
+  <si>
+    <t>POM</t>
+  </si>
+  <si>
+    <t>PVC</t>
+  </si>
+  <si>
+    <t>TPO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -406,29 +439,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,227 +472,820 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>1.5</v>
       </c>
       <c r="C2" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>2.5</v>
       </c>
       <c r="C4" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>3.5</v>
       </c>
       <c r="C6" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="C14" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="C12" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
       <c r="B15" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1">
         <v>1.5</v>
       </c>
       <c r="C16" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
       </c>
       <c r="C17" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1">
         <v>2.5</v>
       </c>
       <c r="C18" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1">
         <v>3</v>
       </c>
       <c r="C19" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1">
         <v>3.5</v>
       </c>
       <c r="C20" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>1.5</v>
+      </c>
+      <c r="C22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>2.5</v>
+      </c>
+      <c r="C24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>3.5</v>
+      </c>
+      <c r="C26">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>1.5</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>2.5</v>
+      </c>
+      <c r="C30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>3.5</v>
+      </c>
+      <c r="C32">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>1.5</v>
+      </c>
+      <c r="C34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>2.5</v>
+      </c>
+      <c r="C36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>3.5</v>
+      </c>
+      <c r="C38">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>1.5</v>
+      </c>
+      <c r="C40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>2.5</v>
+      </c>
+      <c r="C42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>3.5</v>
+      </c>
+      <c r="C44">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>1.5</v>
+      </c>
+      <c r="C46">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>2.5</v>
+      </c>
+      <c r="C48">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>3.5</v>
+      </c>
+      <c r="C50">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52">
+        <v>1.5</v>
+      </c>
+      <c r="C52">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54">
+        <v>2.5</v>
+      </c>
+      <c r="C54">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <v>3.5</v>
+      </c>
+      <c r="C56">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58">
+        <v>1.5</v>
+      </c>
+      <c r="C58">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60">
+        <v>2.5</v>
+      </c>
+      <c r="C60">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62">
+        <v>3.5</v>
+      </c>
+      <c r="C62">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64">
+        <v>1.5</v>
+      </c>
+      <c r="C64">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>45.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66">
+        <v>2.5</v>
+      </c>
+      <c r="C66">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>53.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68">
+        <v>3.5</v>
+      </c>
+      <c r="C68">
+        <v>64.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70">
+        <v>1.5</v>
+      </c>
+      <c r="C70">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72">
+        <v>2.5</v>
+      </c>
+      <c r="C72">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74">
+        <v>3.5</v>
+      </c>
+      <c r="C74">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
